--- a/output_data/charts/capacity-DelawareCounty-0500000US39041.xlsx
+++ b/output_data/charts/capacity-DelawareCounty-0500000US39041.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -486,7 +486,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4000000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -507,19 +507,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>565000</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17680</c:v>
+                  <c:v>17.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21520</c:v>
+                  <c:v>21.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75680</c:v>
+                  <c:v>75.68000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1019680</c:v>
+                  <c:v>1019.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,7 +847,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6720</c:v>
+                  <c:v>6.720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -856,52 +856,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14850</c:v>
+                  <c:v>14.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84700</c:v>
+                  <c:v>84.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72895</c:v>
+                  <c:v>72.895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>561800</c:v>
+                  <c:v>561.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114500</c:v>
+                  <c:v>114.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>232100</c:v>
+                  <c:v>232.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1219500</c:v>
+                  <c:v>1219.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>270600</c:v>
+                  <c:v>270.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3313500</c:v>
+                  <c:v>3313.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>779700</c:v>
+                  <c:v>779.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>975159</c:v>
+                  <c:v>975.159</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1346606</c:v>
+                  <c:v>1346.606</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1872644</c:v>
+                  <c:v>1872.644</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2108764</c:v>
+                  <c:v>2108.764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,7 +1223,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1238,10 +1238,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15000</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>6720</v>
+        <v>6.720000000000001</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>14850</v>
+        <v>14.85</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>15000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>84700</v>
+        <v>84.7</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>4000000</v>
+        <v>4000</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>72895</v>
+        <v>72.895</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>561800</v>
+        <v>561.8</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>114500</v>
+        <v>114.5</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>232100</v>
+        <v>232.1</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1219500</v>
+        <v>1219.5</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>270600</v>
+        <v>270.6</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>3313500</v>
+        <v>3313.5</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>565000</v>
+        <v>565</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>779700</v>
+        <v>779.7</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>17680</v>
+        <v>17.68</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>975159</v>
+        <v>975.159</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>21520</v>
+        <v>21.52</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>1346606</v>
+        <v>1346.606</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>75680</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>1872644</v>
+        <v>1872.644</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1019680</v>
+        <v>1019.68</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>2108764</v>
+        <v>2108.764</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-DelawareCounty-0500000US39041.xlsx
+++ b/output_data/charts/capacity-DelawareCounty-0500000US39041.xlsx
@@ -519,7 +519,7 @@
                   <c:v>75.68000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1019.68</c:v>
+                  <c:v>1034.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,16 +892,16 @@
                   <c:v>779.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>975.159</c:v>
+                  <c:v>971.859</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1346.606</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1872.644</c:v>
+                  <c:v>1877.544</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2108.764</c:v>
+                  <c:v>2571.994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>975.159</v>
+        <v>971.859</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>1872.644</v>
+        <v>1877.544</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>1019.68</v>
+        <v>1034.68</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>2108.764</v>
+        <v>2571.994</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
